--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/M162/Adressliste.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/M162/Adressliste.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\M162\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B64630-9DC5-41AE-A46A-C5A1E77565B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741BCDA2-4B78-4CD6-A9C0-43832B361CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261771D3-E3B1-4550-B05E-B0B7222E509E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{261771D3-E3B1-4550-B05E-B0B7222E509E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Adressliste" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle1 (2)" sheetId="4" r:id="rId3"/>
-    <sheet name="Tabelle2" sheetId="3" r:id="rId4"/>
+    <sheet name="Set_UP" sheetId="5" r:id="rId1"/>
+    <sheet name="Adressliste" sheetId="1" r:id="rId2"/>
+    <sheet name="Adressen Rawdaten" sheetId="2" r:id="rId3"/>
+    <sheet name="Formeln_Test" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Tabelle2!$J$6:$J$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Set_UP!$B$4:$B$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
   <si>
     <t>Adressliste</t>
   </si>
@@ -170,30 +170,175 @@
     <t>Schalter</t>
   </si>
   <si>
-    <t>EUR 24.50</t>
-  </si>
-  <si>
     <t>Rothlin</t>
   </si>
   <si>
     <t>walter</t>
   </si>
   <si>
-    <t>Miss</t>
-  </si>
-  <si>
-    <t>Mister</t>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Textverketten</t>
+  </si>
+  <si>
+    <t>Gross2</t>
+  </si>
+  <si>
+    <t>Eingabefelder:</t>
+  </si>
+  <si>
+    <t>Resultat</t>
+  </si>
+  <si>
+    <t>Verwendete Formel</t>
+  </si>
+  <si>
+    <t>Familie</t>
+  </si>
+  <si>
+    <t>Zellenreferenzen:</t>
+  </si>
+  <si>
+    <t>String-Formeln:</t>
+  </si>
+  <si>
+    <t>HausNr</t>
+  </si>
+  <si>
+    <t>20c</t>
+  </si>
+  <si>
+    <t>Mittelstrasse</t>
+  </si>
+  <si>
+    <t>Pfadwegstrasse</t>
+  </si>
+  <si>
+    <t>Lindkaufstrasse</t>
+  </si>
+  <si>
+    <t>Hinterstrasse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lichterstrasse </t>
+  </si>
+  <si>
+    <t>Strasse_Nr</t>
+  </si>
+  <si>
+    <t>PLZ_Ort</t>
+  </si>
+  <si>
+    <t>Verena</t>
+  </si>
+  <si>
+    <t>Etzelstr.</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Ja/Nein</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>PerDu</t>
+  </si>
+  <si>
+    <t>Susi</t>
+  </si>
+  <si>
+    <t>Pi:</t>
+  </si>
+  <si>
+    <t>Radius [cm]</t>
+  </si>
+  <si>
+    <t>Umfang [cm]</t>
+  </si>
+  <si>
+    <r>
+      <t>Fläche [cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Nachname</t>
+  </si>
+  <si>
+    <t>Rechts</t>
+  </si>
+  <si>
+    <t>Teil</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Kreisberechnungen</t>
+  </si>
+  <si>
+    <t>Privat_eMail</t>
+  </si>
+  <si>
+    <t>Geschäft_eMail</t>
+  </si>
+  <si>
+    <t>Domain:</t>
+  </si>
+  <si>
+    <t>bzu.ch</t>
+  </si>
+  <si>
+    <t>Anrede</t>
+  </si>
+  <si>
+    <t>wenn(verketten())</t>
+  </si>
+  <si>
+    <t>verketten(wenn())</t>
+  </si>
+  <si>
+    <t>Meier</t>
+  </si>
+  <si>
+    <t>Bamert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;CHF&quot;\ #,##0.00;[Red]&quot;CHF&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +359,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,8 +391,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -258,11 +427,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -275,11 +470,42 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -293,17 +519,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2E7DCB97-9DCE-4602-9CE9-EADECB4546DB}" name="Table3" displayName="Table3" ref="A3:H8" totalsRowShown="0">
-  <autoFilter ref="A3:H8" xr:uid="{2E7DCB97-9DCE-4602-9CE9-EADECB4546DB}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2E7DCB97-9DCE-4602-9CE9-EADECB4546DB}" name="Table3" displayName="Table3" ref="A3:N9" totalsRowShown="0">
+  <autoFilter ref="A3:N9" xr:uid="{2E7DCB97-9DCE-4602-9CE9-EADECB4546DB}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{5B23EDD6-9A1C-44CE-9C1E-FBF33E13CE79}" name="Gender"/>
-    <tableColumn id="2" xr3:uid="{FFADF30F-05CE-44AB-8548-B258B89D6DC3}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{A0E70221-9171-48F2-9371-B8C71690EFC3}" name="Vorname"/>
+    <tableColumn id="13" xr3:uid="{3A758B3D-1AD8-4E65-B3B9-E588143EC4B8}" name="PerDu"/>
+    <tableColumn id="2" xr3:uid="{FFADF30F-05CE-44AB-8548-B258B89D6DC3}" name="Vorname"/>
+    <tableColumn id="3" xr3:uid="{A0E70221-9171-48F2-9371-B8C71690EFC3}" name="Nachname"/>
     <tableColumn id="4" xr3:uid="{F8D555E6-E4E8-4275-BB5C-77A37AF202A0}" name="Strasse"/>
-    <tableColumn id="8" xr3:uid="{BDB4BB3E-ADE5-427D-B6AC-340CB062EBE7}" name="PLZ"/>
+    <tableColumn id="9" xr3:uid="{6E592F63-AEFD-436E-84AC-074550B61651}" name="HausNr"/>
+    <tableColumn id="11" xr3:uid="{6C67D0B7-85D1-4F0C-8860-69F752F33511}" name="Strasse_Nr" dataDxfId="4">
+      <calculatedColumnFormula>_xlfn.TEXTJOIN(" ",,E4,F4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{CA036BEB-E064-4B61-A24E-0840792ECBE7}" name="PLZ_Ort" dataDxfId="3">
+      <calculatedColumnFormula>_xlfn.TEXTJOIN(" ",,I4,J4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{BDB4BB3E-ADE5-427D-B6AC-340CB062EBE7}" name="PLZ" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{A39472B5-EE97-430E-895E-6678BB44C09F}" name="Ort"/>
-    <tableColumn id="6" xr3:uid="{E605B729-38BD-407F-A44A-44B822387B7B}" name="eMail"/>
+    <tableColumn id="15" xr3:uid="{3DBD039F-C074-4D79-AECC-917541BB28C3}" name="Geschäft_eMail" dataDxfId="1">
+      <calculatedColumnFormula>_xlfn.CONCAT(N4,"@",$N$1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{E605B729-38BD-407F-A44A-44B822387B7B}" name="Privat_eMail"/>
     <tableColumn id="7" xr3:uid="{69CDFD81-13B6-4F62-B1EC-705FDCAF2A95}" name="TelNr"/>
+    <tableColumn id="12" xr3:uid="{8AA6C588-CBBE-426A-A697-27579A911135}" name="UserName" dataDxfId="0">
+      <calculatedColumnFormula>LOWER(_xlfn.TEXTJOIN(".",,C4,D4))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -625,187 +865,435 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADBBD78-B871-447C-8DA7-FDBDABB6AA26}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="B4:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f>_xlfn.CONCAT("Sehr geehrter ",B5," ")</f>
+        <v xml:space="preserve">Sehr geehrter Herr </v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f>_xlfn.CONCAT("Sehr geehrte ",B6," ")</f>
+        <v xml:space="preserve">Sehr geehrte Frau </v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <f>_xlfn.CONCAT("Sehr geehrte ",B7," ")</f>
+        <v xml:space="preserve">Sehr geehrte Familie </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF23D83-735F-4FD9-9581-F51A5B19DB29}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" customWidth="1"/>
+    <col min="7" max="7" width="27.26953125" customWidth="1"/>
+    <col min="8" max="8" width="21.6328125" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.6328125" customWidth="1"/>
+    <col min="12" max="12" width="26.08984375" customWidth="1"/>
+    <col min="13" max="13" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="2"/>
+      <c r="M1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="N3" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",,E4,F4)</f>
+        <v>Mittelstrasse 14</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H8" si="0">_xlfn.TEXTJOIN(" ",,I4,J4)</f>
+        <v>9585 Wiesenbach</v>
+      </c>
+      <c r="I4">
         <v>9585</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K9" si="1">_xlfn.CONCAT(N4,"@",$N$1)</f>
+        <v>paul.bühler@bzu.ch</v>
+      </c>
+      <c r="L4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
+      <c r="M4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N9" si="2">LOWER(_xlfn.TEXTJOIN(".",,C4,D4))</f>
+        <v>paul.bühler</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" ref="G5:G8" si="3">_xlfn.TEXTJOIN(" ",,E5,F5)</f>
+        <v>Pfadwegstrasse 5</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>9358 Luxen</v>
+      </c>
+      <c r="I5">
         <v>9358</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>lina.weber@bzu.ch</v>
+      </c>
+      <c r="L5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" t="s">
+      <c r="M5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="N5" t="str">
+        <f t="shared" si="2"/>
+        <v>lina.weber</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Lindkaufstrasse 20c</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>3954 Mauerhof</v>
+      </c>
+      <c r="I6">
         <v>3954</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>mara.schulz@bzu.ch</v>
+      </c>
+      <c r="L6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" t="s">
+      <c r="M6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="N6" t="str">
+        <f t="shared" si="2"/>
+        <v>mara.schulz</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Hinterstrasse 2</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>2845 Fingen</v>
+      </c>
+      <c r="I7">
         <v>2845</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
         <v>30</v>
       </c>
-      <c r="G7" t="s">
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>rebeca.müller@bzu.ch</v>
+      </c>
+      <c r="L7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" t="s">
+      <c r="M7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="N7" t="str">
+        <f t="shared" si="2"/>
+        <v>rebeca.müller</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Lichterstrasse  17</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>9456 Drachten</v>
+      </c>
+      <c r="I8">
         <v>9456</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" t="s">
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>max.schmidt@bzu.ch</v>
+      </c>
+      <c r="L8" t="s">
         <v>35</v>
       </c>
-      <c r="H8" t="s">
+      <c r="M8" t="s">
         <v>39</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="2"/>
+        <v>max.schmidt</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",,E9,F9)</f>
+        <v>Etzelstr. 7</v>
+      </c>
+      <c r="H9" t="str">
+        <f>_xlfn.TEXTJOIN(" ",,I9,J9)</f>
+        <v>9456 Drachten</v>
+      </c>
+      <c r="I9">
+        <v>9456</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>verena.müller@bzu.ch</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="2"/>
+        <v>verena.müller</v>
       </c>
     </row>
   </sheetData>
@@ -814,10 +1302,22 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{21B69979-D6D2-4A2D-AA6A-5DDF0EDC002D}">
+          <x14:formula1>
+            <xm:f>Set_UP!$B$5:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>A4:A9 B5:B9 B4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E4C0FF-9320-4753-88BE-A8D3E571CC02}">
   <dimension ref="B4:I11"/>
   <sheetViews>
@@ -999,203 +1499,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF8CD7E-523E-475C-A9DD-B1AE515D7CA4}">
-  <dimension ref="B4:I11"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C0DC86-CA06-4C02-A186-E3DE087F16F3}">
+  <dimension ref="B5:U59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" customWidth="1"/>
+    <col min="7" max="7" width="18.7265625" customWidth="1"/>
+    <col min="8" max="9" width="31.36328125" customWidth="1"/>
+    <col min="10" max="10" width="18.7265625" customWidth="1"/>
+    <col min="12" max="12" width="18.7265625" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" customWidth="1"/>
+    <col min="16" max="16" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>9585</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8">
-        <v>9358</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9">
-        <v>3954</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10">
-        <v>2845</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11">
-        <v>9456</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C0DC86-CA06-4C02-A186-E3DE087F16F3}">
-  <dimension ref="B5:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="6" max="6" width="14.1796875" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:10" ht="21" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:21" ht="21" x14ac:dyDescent="0.5">
       <c r="D5" s="4">
         <v>20</v>
       </c>
@@ -1210,71 +1535,675 @@
         <v>490</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="J6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="F7" s="8" t="s">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="F7" s="8">
+        <v>24.5</v>
+      </c>
+      <c r="G7">
+        <f>D5*F7</f>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="9"/>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="C13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="J13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="C14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="8" t="e">
-        <f>D5*F7</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="G14" t="str">
+        <f>IF(C14="Herr","Sehr geehrter Herr",IF(C14="Frau","Sehr geehrte Frau","Sehr geehrte Familie"))</f>
+        <v>Sehr geehrter Herr</v>
+      </c>
+      <c r="I14" t="str">
+        <f>_xlfn.CONCAT(IF(C14=Set_UP!$B$5,Set_UP!$D$5,Set_UP!$D$6)," ",F14)</f>
+        <v>Sehr geehrter Herr  Rothlin</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="5" t="str">
+        <f>IF(C14=Set_UP!$B$5,_xlfn.CONCAT(Set_UP!$D$5,F14),_xlfn.CONCAT(Set_UP!$D$6,F14))</f>
+        <v>Sehr geehrter Herr Rothlin</v>
+      </c>
+      <c r="L14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="J8" t="s">
+      <c r="M14" s="5" t="str">
+        <f>_xlfn.TEXTJOIN(".",,LEFT(PROPER(E14),1),F14)</f>
+        <v>W.Rothlin</v>
+      </c>
+      <c r="N14" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="5" t="str">
+        <f>LEFT(E14,3)</f>
+        <v>wal</v>
+      </c>
+      <c r="P14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="5" t="str">
+        <f>RIGHT(F14,5)</f>
+        <v>thlin</v>
+      </c>
+      <c r="R14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S14" s="5" t="str">
+        <f>MID(F14,3,4)</f>
+        <v>thli</v>
+      </c>
+      <c r="T14" t="s">
+        <v>77</v>
+      </c>
+      <c r="U14" s="5" t="str">
+        <f>UPPER(E14)</f>
+        <v>WALTER</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="C15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="str">
+        <f>IF(C15="Herr","Sehr geehrter","Sehr geehrte")</f>
+        <v>Sehr geehrte</v>
+      </c>
+      <c r="H15" t="str">
+        <f>_xlfn.CONCAT(G15," ",C15," ",F15)</f>
+        <v>Sehr geehrte Frau Müller</v>
+      </c>
+      <c r="I15" t="str">
+        <f>_xlfn.CONCAT(IF(C15=Set_UP!$B$5,Set_UP!$D$5,Set_UP!$D$6)," ",F15)</f>
+        <v>Sehr geehrte Frau  Müller</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" s="5" t="str">
+        <f>_xlfn.CONCAT(IF(C15=Set_UP!$B$5,Set_UP!$D$5,IF(C15=Set_UP!$B$6,Set_UP!$D$6,Set_UP!$D$7)),F15)</f>
+        <v>Sehr geehrte Frau Müller</v>
+      </c>
+      <c r="L15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="5" t="str">
+        <f>_xlfn.TEXTJOIN(".",,LEFT(PROPER(E15),1),F15)</f>
+        <v>S.Müller</v>
+      </c>
+      <c r="N15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="5" t="str">
+        <f>LEFT(PROPER(E15),3)</f>
+        <v>Sus</v>
+      </c>
+      <c r="P15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" s="5" t="str">
+        <f>RIGHT(F15,5)</f>
+        <v>üller</v>
+      </c>
+      <c r="R15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S15" s="5" t="str">
+        <f>MID(F15,3,4)</f>
+        <v>ller</v>
+      </c>
+      <c r="T15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="9"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="str">
-        <f>_xlfn.TEXTJOIN(".",,LEFT(PROPER(E15),1),F15)</f>
-        <v>W.Rothlin</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="U15" s="5" t="str">
+        <f>PROPER(E15)</f>
+        <v>Susi</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="C16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" ref="G16:G17" si="0">IF(C16="Herr","Sehr geehrter","Sehr geehrte")</f>
+        <v>Sehr geehrter</v>
+      </c>
       <c r="H16" t="str">
-        <f>LEFT(PROPER(E15),1)</f>
-        <v>W</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H16:H17" si="1">_xlfn.CONCAT(G16," ",C16," ",F16)</f>
+        <v>Sehr geehrter Herr Meier</v>
+      </c>
+      <c r="I16" t="str">
+        <f>_xlfn.CONCAT(IF(C16=Set_UP!$B$5,Set_UP!$D$5,Set_UP!$D$6)," ",F16)</f>
+        <v>Sehr geehrter Herr  Meier</v>
+      </c>
+      <c r="J16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="5" t="str">
+        <f>_xlfn.CONCAT(IF(C16=Set_UP!$B$5,Set_UP!$D$5,IF(C16=Set_UP!$B$6,Set_UP!$D$6,Set_UP!$D$7)),F16)</f>
+        <v>Sehr geehrter Herr Meier</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="U16" s="5"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="C17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>Sehr geehrte</v>
+      </c>
       <c r="H17" t="str">
-        <f>PROPER(E15)</f>
-        <v>Walter</v>
+        <f t="shared" si="1"/>
+        <v>Sehr geehrte Familie Bamert</v>
+      </c>
+      <c r="I17" t="str">
+        <f>_xlfn.CONCAT(IF(C17=Set_UP!$B$5,Set_UP!$D$5,Set_UP!$D$6)," ",F17)</f>
+        <v>Sehr geehrte Frau  Bamert</v>
+      </c>
+      <c r="K17" s="5" t="str">
+        <f>_xlfn.CONCAT(IF(C17=Set_UP!$B$5,Set_UP!$D$5,IF(C17=Set_UP!$B$6,Set_UP!$D$6,Set_UP!$D$7)),F17)</f>
+        <v>Sehr geehrte Familie Bamert</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="K18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="K19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="K20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="U20" s="5"/>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="K21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="K22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="U22" s="5"/>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="14">
+        <v>3.1415926000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="C28" s="6">
+        <v>10</v>
+      </c>
+      <c r="D28" s="5">
+        <f>2*C28*$G$26</f>
+        <v>62.831851999999998</v>
+      </c>
+      <c r="E28" s="5">
+        <f>C28^2*$G$26</f>
+        <v>314.15926000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="C29" s="6">
+        <v>20</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" ref="D29:D38" si="2">2*C29*$G$26</f>
+        <v>125.663704</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" ref="E29:E38" si="3">C29^2*$G$26</f>
+        <v>1256.6370400000001</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="2"/>
+        <v>188.49555599999999</v>
+      </c>
+      <c r="E30" s="5">
+        <f>C30^2*$G$26</f>
+        <v>2827.43334</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <v>40</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="2"/>
+        <v>251.32740799999999</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="3"/>
+        <v>5026.5481600000003</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="D32" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D33" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D34" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D35" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D36" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D37" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D38" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3.1415926700000001</v>
+      </c>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="4:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="D45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D46" s="16">
+        <v>10</v>
+      </c>
+      <c r="E46" s="15">
+        <f>2*D46*$H$44</f>
+        <v>62.8318534</v>
+      </c>
+      <c r="F46" s="15">
+        <f>D46^2*$H$44</f>
+        <v>314.159267</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D47" s="16">
+        <v>20</v>
+      </c>
+      <c r="E47" s="15">
+        <f t="shared" ref="E47:E59" si="4">2*D47*$H$44</f>
+        <v>125.6637068</v>
+      </c>
+      <c r="F47" s="15">
+        <f t="shared" ref="F47:F59" si="5">D47^2*$H$44</f>
+        <v>1256.637068</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D48" s="16">
+        <v>30</v>
+      </c>
+      <c r="E48" s="15">
+        <f t="shared" si="4"/>
+        <v>188.4955602</v>
+      </c>
+      <c r="F48" s="15">
+        <f>D48^2*$H$44</f>
+        <v>2827.433403</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D49" s="16">
+        <v>40</v>
+      </c>
+      <c r="E49" s="15">
+        <f t="shared" si="4"/>
+        <v>251.3274136</v>
+      </c>
+      <c r="F49" s="15">
+        <f t="shared" si="5"/>
+        <v>5026.548272</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D50" s="16">
+        <v>50</v>
+      </c>
+      <c r="E50" s="15">
+        <f t="shared" si="4"/>
+        <v>314.159267</v>
+      </c>
+      <c r="F50" s="15">
+        <f t="shared" si="5"/>
+        <v>7853.981675</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D51" s="16">
+        <v>60</v>
+      </c>
+      <c r="E51" s="15">
+        <f t="shared" si="4"/>
+        <v>376.9911204</v>
+      </c>
+      <c r="F51" s="15">
+        <f t="shared" si="5"/>
+        <v>11309.733612</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D52" s="16">
+        <v>70</v>
+      </c>
+      <c r="E52" s="15">
+        <f t="shared" si="4"/>
+        <v>439.8229738</v>
+      </c>
+      <c r="F52" s="15">
+        <f t="shared" si="5"/>
+        <v>15393.804083000001</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D53" s="16">
+        <v>80</v>
+      </c>
+      <c r="E53" s="15">
+        <f t="shared" si="4"/>
+        <v>502.6548272</v>
+      </c>
+      <c r="F53" s="15">
+        <f t="shared" si="5"/>
+        <v>20106.193088</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D54" s="16">
+        <v>90</v>
+      </c>
+      <c r="E54" s="15">
+        <f t="shared" si="4"/>
+        <v>565.4866806</v>
+      </c>
+      <c r="F54" s="15">
+        <f t="shared" si="5"/>
+        <v>25446.900626999999</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D55" s="16">
+        <v>100</v>
+      </c>
+      <c r="E55" s="15">
+        <f t="shared" si="4"/>
+        <v>628.318534</v>
+      </c>
+      <c r="F55" s="15">
+        <f t="shared" si="5"/>
+        <v>31415.9267</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D56" s="16">
+        <v>110</v>
+      </c>
+      <c r="E56" s="15">
+        <f t="shared" si="4"/>
+        <v>691.1503874</v>
+      </c>
+      <c r="F56" s="15">
+        <f t="shared" si="5"/>
+        <v>38013.271307000003</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D57" s="16">
+        <v>120</v>
+      </c>
+      <c r="E57" s="15">
+        <f t="shared" si="4"/>
+        <v>753.9822408</v>
+      </c>
+      <c r="F57" s="15">
+        <f t="shared" si="5"/>
+        <v>45238.934448</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D58" s="16">
+        <v>130</v>
+      </c>
+      <c r="E58" s="15">
+        <f t="shared" si="4"/>
+        <v>816.8140942</v>
+      </c>
+      <c r="F58" s="15">
+        <f t="shared" si="5"/>
+        <v>53092.916123000003</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D59" s="16">
+        <v>140</v>
+      </c>
+      <c r="E59" s="15">
+        <f t="shared" si="4"/>
+        <v>879.6459476</v>
+      </c>
+      <c r="F59" s="15">
+        <f t="shared" si="5"/>
+        <v>61575.216332000004</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="J6:J8" xr:uid="{75C0DC86-CA06-4C02-A186-E3DE087F16F3}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{43752333-F62D-4CE8-BF3B-3A3258F7CC28}">
-      <formula1>$J$7:$J$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:I9" xr:uid="{D13848D0-A52A-4F20-84CC-BC3B30CCE7DB}">
+      <formula1>"Max,Walter,Fritz"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{43752333-F62D-4CE8-BF3B-3A3258F7CC28}">
+          <x14:formula1>
+            <xm:f>Set_UP!$B$5:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B714AB84-152C-4E1D-8317-B6527BE861A5}">
+          <x14:formula1>
+            <xm:f>Set_UP!$B$5:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>H10:I10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/M162/Adressliste.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/M162/Adressliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\M162\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741BCDA2-4B78-4CD6-A9C0-43832B361CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671251D1-B793-4D17-BA7D-77D8ED37271B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{261771D3-E3B1-4550-B05E-B0B7222E509E}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{261771D3-E3B1-4550-B05E-B0B7222E509E}"/>
   </bookViews>
   <sheets>
     <sheet name="Set_UP" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="98">
   <si>
     <t>Adressliste</t>
   </si>
@@ -327,6 +327,36 @@
   </si>
   <si>
     <t>Bamert</t>
+  </si>
+  <si>
+    <t>Min Passwort Len:</t>
+  </si>
+  <si>
+    <t>TopGsdd</t>
+  </si>
+  <si>
+    <t>TopGdddd</t>
+  </si>
+  <si>
+    <t>TopGfghja</t>
+  </si>
+  <si>
+    <t>Op A</t>
+  </si>
+  <si>
+    <t>Op B</t>
+  </si>
+  <si>
+    <t>AND (UND)</t>
+  </si>
+  <si>
+    <t>OR (ODER)</t>
+  </si>
+  <si>
+    <t>XOR (XODER)</t>
+  </si>
+  <si>
+    <t>NOT (NICHT) OP A</t>
   </si>
 </sst>
 </file>
@@ -404,7 +434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -453,11 +483,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -483,11 +687,39 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -528,20 +760,20 @@
     <tableColumn id="3" xr3:uid="{A0E70221-9171-48F2-9371-B8C71690EFC3}" name="Nachname"/>
     <tableColumn id="4" xr3:uid="{F8D555E6-E4E8-4275-BB5C-77A37AF202A0}" name="Strasse"/>
     <tableColumn id="9" xr3:uid="{6E592F63-AEFD-436E-84AC-074550B61651}" name="HausNr"/>
-    <tableColumn id="11" xr3:uid="{6C67D0B7-85D1-4F0C-8860-69F752F33511}" name="Strasse_Nr" dataDxfId="4">
+    <tableColumn id="11" xr3:uid="{6C67D0B7-85D1-4F0C-8860-69F752F33511}" name="Strasse_Nr" dataDxfId="5">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(" ",,E4,F4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{CA036BEB-E064-4B61-A24E-0840792ECBE7}" name="PLZ_Ort" dataDxfId="3">
+    <tableColumn id="10" xr3:uid="{CA036BEB-E064-4B61-A24E-0840792ECBE7}" name="PLZ_Ort" dataDxfId="4">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(" ",,I4,J4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BDB4BB3E-ADE5-427D-B6AC-340CB062EBE7}" name="PLZ" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{BDB4BB3E-ADE5-427D-B6AC-340CB062EBE7}" name="PLZ" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{A39472B5-EE97-430E-895E-6678BB44C09F}" name="Ort"/>
-    <tableColumn id="15" xr3:uid="{3DBD039F-C074-4D79-AECC-917541BB28C3}" name="Geschäft_eMail" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{3DBD039F-C074-4D79-AECC-917541BB28C3}" name="Geschäft_eMail" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.CONCAT(N4,"@",$N$1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{E605B729-38BD-407F-A44A-44B822387B7B}" name="Privat_eMail"/>
     <tableColumn id="7" xr3:uid="{69CDFD81-13B6-4F62-B1EC-705FDCAF2A95}" name="TelNr"/>
-    <tableColumn id="12" xr3:uid="{8AA6C588-CBBE-426A-A697-27579A911135}" name="UserName" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{8AA6C588-CBBE-426A-A697-27579A911135}" name="UserName" dataDxfId="1">
       <calculatedColumnFormula>LOWER(_xlfn.TEXTJOIN(".",,C4,D4))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1501,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C0DC86-CA06-4C02-A186-E3DE087F16F3}">
-  <dimension ref="B5:U59"/>
+  <dimension ref="B5:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2035,7 +2267,7 @@
         <v>2827.433403</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D49" s="16">
         <v>40</v>
       </c>
@@ -2048,7 +2280,7 @@
         <v>5026.548272</v>
       </c>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D50" s="16">
         <v>50</v>
       </c>
@@ -2061,7 +2293,7 @@
         <v>7853.981675</v>
       </c>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D51" s="16">
         <v>60</v>
       </c>
@@ -2074,7 +2306,7 @@
         <v>11309.733612</v>
       </c>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D52" s="16">
         <v>70</v>
       </c>
@@ -2087,7 +2319,7 @@
         <v>15393.804083000001</v>
       </c>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D53" s="16">
         <v>80</v>
       </c>
@@ -2100,7 +2332,7 @@
         <v>20106.193088</v>
       </c>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D54" s="16">
         <v>90</v>
       </c>
@@ -2113,7 +2345,7 @@
         <v>25446.900626999999</v>
       </c>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D55" s="16">
         <v>100</v>
       </c>
@@ -2126,7 +2358,7 @@
         <v>31415.9267</v>
       </c>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D56" s="16">
         <v>110</v>
       </c>
@@ -2139,7 +2371,7 @@
         <v>38013.271307000003</v>
       </c>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D57" s="16">
         <v>120</v>
       </c>
@@ -2152,7 +2384,7 @@
         <v>45238.934448</v>
       </c>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D58" s="16">
         <v>130</v>
       </c>
@@ -2165,7 +2397,7 @@
         <v>53092.916123000003</v>
       </c>
     </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D59" s="16">
         <v>140</v>
       </c>
@@ -2178,8 +2410,178 @@
         <v>61575.216332000004</v>
       </c>
     </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G63" t="s">
+        <v>88</v>
+      </c>
+      <c r="H63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64">
+        <f>LEN(D64)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D65" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ref="E65:E66" si="6">LEN(D65)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="71" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G71" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B72" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" s="22" t="b">
+        <f>AND(B72,C72)</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="22" t="b">
+        <f>OR(B72,C72)</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="22" t="b">
+        <f>_xlfn.XOR(B72,C72)</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="23" t="b">
+        <f>NOT(B72)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B73" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" s="26" t="b">
+        <f t="shared" ref="D73:D75" si="7">AND(B73,C73)</f>
+        <v>0</v>
+      </c>
+      <c r="E73" s="26" t="b">
+        <f t="shared" ref="E73:E75" si="8">OR(B73,C73)</f>
+        <v>1</v>
+      </c>
+      <c r="F73" s="26" t="b">
+        <f t="shared" ref="F73:F75" si="9">_xlfn.XOR(B73,C73)</f>
+        <v>1</v>
+      </c>
+      <c r="G73" s="27" t="b">
+        <f t="shared" ref="G73:G75" si="10">NOT(B73)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B74" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" s="26" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="26" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F74" s="26" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G74" s="27" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" s="30" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E75" s="30" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F75" s="30" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="31" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64:D66">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>E64&gt;$I$16</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:I9" xr:uid="{D13848D0-A52A-4F20-84CC-BC3B30CCE7DB}">
       <formula1>"Max,Walter,Fritz"</formula1>

--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/M162/Adressliste.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/M162/Adressliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\M162\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671251D1-B793-4D17-BA7D-77D8ED37271B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C311A37B-6C6C-4191-9055-333AAAC7B958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{261771D3-E3B1-4550-B05E-B0B7222E509E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{261771D3-E3B1-4550-B05E-B0B7222E509E}"/>
   </bookViews>
   <sheets>
     <sheet name="Set_UP" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="106">
   <si>
     <t>Adressliste</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>20c</t>
-  </si>
-  <si>
-    <t>Mittelstrasse</t>
   </si>
   <si>
     <t>Pfadwegstrasse</t>
@@ -357,6 +354,33 @@
   </si>
   <si>
     <t>NOT (NICHT) OP A</t>
+  </si>
+  <si>
+    <t>Peterliwiese</t>
+  </si>
+  <si>
+    <t>Min_Length:</t>
+  </si>
+  <si>
+    <t>hallo</t>
+  </si>
+  <si>
+    <t>hal</t>
+  </si>
+  <si>
+    <t>hallosdfsd</t>
+  </si>
+  <si>
+    <t>hallo456</t>
+  </si>
+  <si>
+    <t>Op1</t>
+  </si>
+  <si>
+    <t>Op2</t>
+  </si>
+  <si>
+    <t>NOT (Nicht OP1)</t>
   </si>
 </sst>
 </file>
@@ -402,7 +426,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +457,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -661,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -708,11 +738,50 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -760,20 +829,20 @@
     <tableColumn id="3" xr3:uid="{A0E70221-9171-48F2-9371-B8C71690EFC3}" name="Nachname"/>
     <tableColumn id="4" xr3:uid="{F8D555E6-E4E8-4275-BB5C-77A37AF202A0}" name="Strasse"/>
     <tableColumn id="9" xr3:uid="{6E592F63-AEFD-436E-84AC-074550B61651}" name="HausNr"/>
-    <tableColumn id="11" xr3:uid="{6C67D0B7-85D1-4F0C-8860-69F752F33511}" name="Strasse_Nr" dataDxfId="5">
+    <tableColumn id="11" xr3:uid="{6C67D0B7-85D1-4F0C-8860-69F752F33511}" name="Strasse_Nr" dataDxfId="10">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(" ",,E4,F4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{CA036BEB-E064-4B61-A24E-0840792ECBE7}" name="PLZ_Ort" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{CA036BEB-E064-4B61-A24E-0840792ECBE7}" name="PLZ_Ort" dataDxfId="9">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(" ",,I4,J4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BDB4BB3E-ADE5-427D-B6AC-340CB062EBE7}" name="PLZ" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{BDB4BB3E-ADE5-427D-B6AC-340CB062EBE7}" name="PLZ" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{A39472B5-EE97-430E-895E-6678BB44C09F}" name="Ort"/>
-    <tableColumn id="15" xr3:uid="{3DBD039F-C074-4D79-AECC-917541BB28C3}" name="Geschäft_eMail" dataDxfId="2">
+    <tableColumn id="15" xr3:uid="{3DBD039F-C074-4D79-AECC-917541BB28C3}" name="Geschäft_eMail" dataDxfId="7">
       <calculatedColumnFormula>_xlfn.CONCAT(N4,"@",$N$1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{E605B729-38BD-407F-A44A-44B822387B7B}" name="Privat_eMail"/>
     <tableColumn id="7" xr3:uid="{69CDFD81-13B6-4F62-B1EC-705FDCAF2A95}" name="TelNr"/>
-    <tableColumn id="12" xr3:uid="{8AA6C588-CBBE-426A-A697-27579A911135}" name="UserName" dataDxfId="1">
+    <tableColumn id="12" xr3:uid="{8AA6C588-CBBE-426A-A697-27579A911135}" name="UserName" dataDxfId="6">
       <calculatedColumnFormula>LOWER(_xlfn.TEXTJOIN(".",,C4,D4))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1117,10 +1186,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
@@ -1128,7 +1197,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="5" t="str">
         <f>_xlfn.CONCAT("Sehr geehrter ",B5," ")</f>
@@ -1140,7 +1209,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="5" t="str">
         <f>_xlfn.CONCAT("Sehr geehrte ",B6," ")</f>
@@ -1169,8 +1238,8 @@
   </sheetPr>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="G6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1196,10 +1265,10 @@
       </c>
       <c r="B1" s="2"/>
       <c r="M1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" t="s">
         <v>81</v>
-      </c>
-      <c r="N1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -1207,13 +1276,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -1222,10 +1291,10 @@
         <v>53</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="I3" t="s">
         <v>40</v>
@@ -1234,16 +1303,16 @@
         <v>5</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" t="s">
         <v>7</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -1251,7 +1320,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1260,14 +1329,14 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="F4">
         <v>14</v>
       </c>
       <c r="G4" s="1" t="str">
         <f>_xlfn.TEXTJOIN(" ",,E4,F4)</f>
-        <v>Mittelstrasse 14</v>
+        <v>Peterliwiese 14</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H8" si="0">_xlfn.TEXTJOIN(" ",,I4,J4)</f>
@@ -1299,7 +1368,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -1308,7 +1377,7 @@
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -1347,7 +1416,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1356,7 +1425,7 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>54</v>
@@ -1395,7 +1464,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -1404,7 +1473,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1443,7 +1512,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -1452,7 +1521,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8">
         <v>17</v>
@@ -1491,16 +1560,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9">
         <v>7</v>
@@ -1733,10 +1802,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C0DC86-CA06-4C02-A186-E3DE087F16F3}">
-  <dimension ref="B5:U75"/>
+  <dimension ref="B5:V77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:G75"/>
+    <sheetView topLeftCell="K63" workbookViewId="0">
+      <selection activeCell="V74" sqref="V74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1750,6 +1819,7 @@
     <col min="12" max="12" width="18.7265625" customWidth="1"/>
     <col min="14" max="14" width="18.7265625" customWidth="1"/>
     <col min="16" max="16" width="18.7265625" customWidth="1"/>
+    <col min="22" max="22" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:21" ht="21" x14ac:dyDescent="0.5">
@@ -1846,7 +1916,7 @@
         <v>Sehr geehrter Herr  Rothlin</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K14" s="5" t="str">
         <f>IF(C14=Set_UP!$B$5,_xlfn.CONCAT(Set_UP!$D$5,F14),_xlfn.CONCAT(Set_UP!$D$6,F14))</f>
@@ -1867,21 +1937,21 @@
         <v>wal</v>
       </c>
       <c r="P14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="5" t="str">
         <f>RIGHT(F14,5)</f>
         <v>thlin</v>
       </c>
       <c r="R14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S14" s="5" t="str">
         <f>MID(F14,3,4)</f>
         <v>thli</v>
       </c>
       <c r="T14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U14" s="5" t="str">
         <f>UPPER(E14)</f>
@@ -1894,7 +1964,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>20</v>
@@ -1912,7 +1982,7 @@
         <v>Sehr geehrte Frau  Müller</v>
       </c>
       <c r="J15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K15" s="5" t="str">
         <f>_xlfn.CONCAT(IF(C15=Set_UP!$B$5,Set_UP!$D$5,IF(C15=Set_UP!$B$6,Set_UP!$D$6,Set_UP!$D$7)),F15)</f>
@@ -1933,14 +2003,14 @@
         <v>Sus</v>
       </c>
       <c r="P15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q15" s="5" t="str">
         <f>RIGHT(F15,5)</f>
         <v>üller</v>
       </c>
       <c r="R15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S15" s="5" t="str">
         <f>MID(F15,3,4)</f>
@@ -1963,7 +2033,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ref="G16:G17" si="0">IF(C16="Herr","Sehr geehrter","Sehr geehrte")</f>
@@ -1978,7 +2048,7 @@
         <v>Sehr geehrter Herr  Meier</v>
       </c>
       <c r="J16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K16" s="5" t="str">
         <f>_xlfn.CONCAT(IF(C16=Set_UP!$B$5,Set_UP!$D$5,IF(C16=Set_UP!$B$6,Set_UP!$D$6,Set_UP!$D$7)),F16)</f>
@@ -1997,7 +2067,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -2066,7 +2136,7 @@
         <v>51</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G26" s="14">
         <v>3.1415926000000001</v>
@@ -2074,13 +2144,13 @@
     </row>
     <row r="27" spans="3:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
         <v>71</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>72</v>
-      </c>
-      <c r="E27" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="28" spans="3:21" x14ac:dyDescent="0.35">
@@ -2207,10 +2277,10 @@
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H44" s="1">
         <v>3.1415926700000001</v>
@@ -2219,13 +2289,13 @@
     </row>
     <row r="45" spans="4:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="D45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" t="s">
         <v>71</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>72</v>
-      </c>
-      <c r="F45" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.35">
@@ -2267,7 +2337,7 @@
         <v>2827.433403</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D49" s="16">
         <v>40</v>
       </c>
@@ -2280,7 +2350,7 @@
         <v>5026.548272</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D50" s="16">
         <v>50</v>
       </c>
@@ -2293,7 +2363,7 @@
         <v>7853.981675</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D51" s="16">
         <v>60</v>
       </c>
@@ -2306,7 +2376,7 @@
         <v>11309.733612</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D52" s="16">
         <v>70</v>
       </c>
@@ -2319,7 +2389,7 @@
         <v>15393.804083000001</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D53" s="16">
         <v>80</v>
       </c>
@@ -2332,7 +2402,7 @@
         <v>20106.193088</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D54" s="16">
         <v>90</v>
       </c>
@@ -2345,7 +2415,7 @@
         <v>25446.900626999999</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D55" s="16">
         <v>100</v>
       </c>
@@ -2358,7 +2428,7 @@
         <v>31415.9267</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D56" s="16">
         <v>110</v>
       </c>
@@ -2371,7 +2441,7 @@
         <v>38013.271307000003</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D57" s="16">
         <v>120</v>
       </c>
@@ -2384,7 +2454,7 @@
         <v>45238.934448</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D58" s="16">
         <v>130</v>
       </c>
@@ -2397,7 +2467,7 @@
         <v>53092.916123000003</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D59" s="16">
         <v>140</v>
       </c>
@@ -2410,66 +2480,132 @@
         <v>61575.216332000004</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O60" t="s">
+        <v>98</v>
+      </c>
+      <c r="P60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
       <c r="G63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H63">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="L63">
+        <v>20</v>
+      </c>
+      <c r="N63" t="s">
+        <v>101</v>
+      </c>
+      <c r="O63">
+        <f>LEN(N63)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E64">
         <f>LEN(D64)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="N64" t="s">
+        <v>100</v>
+      </c>
+      <c r="O64">
+        <f t="shared" ref="O64:O69" si="6">LEN(N64)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.35">
       <c r="D65" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ref="E65:E66" si="7">LEN(D65)</f>
+        <v>8</v>
+      </c>
+      <c r="N65" t="s">
+        <v>99</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="D66" t="s">
         <v>90</v>
       </c>
-      <c r="E65">
-        <f t="shared" ref="E65:E66" si="6">LEN(D65)</f>
+      <c r="E66">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="N66" t="s">
+        <v>99</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="N67" t="s">
+        <v>99</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="N68" t="s">
+        <v>102</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D66" t="s">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="N69" t="s">
+        <v>99</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="71" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E66">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="71" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="17" t="s">
+      <c r="C71" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="D71" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="E71" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="F71" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F71" s="18" t="s">
+      <c r="G71" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="G71" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B72" s="20" t="b">
         <v>0</v>
       </c>
@@ -2493,7 +2629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B73" s="24" t="b">
         <v>0</v>
       </c>
@@ -2501,23 +2637,41 @@
         <v>1</v>
       </c>
       <c r="D73" s="26" t="b">
-        <f t="shared" ref="D73:D75" si="7">AND(B73,C73)</f>
+        <f t="shared" ref="D73:D75" si="8">AND(B73,C73)</f>
         <v>0</v>
       </c>
       <c r="E73" s="26" t="b">
-        <f t="shared" ref="E73:E75" si="8">OR(B73,C73)</f>
+        <f t="shared" ref="E73:E75" si="9">OR(B73,C73)</f>
         <v>1</v>
       </c>
       <c r="F73" s="26" t="b">
-        <f t="shared" ref="F73:F75" si="9">_xlfn.XOR(B73,C73)</f>
+        <f t="shared" ref="F73:F75" si="10">_xlfn.XOR(B73,C73)</f>
         <v>1</v>
       </c>
       <c r="G73" s="27" t="b">
-        <f t="shared" ref="G73:G75" si="10">NOT(B73)</f>
+        <f t="shared" ref="G73:G75" si="11">NOT(B73)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="Q73" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="R73" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="S73" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="T73" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="U73" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="V73" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B74" s="24" t="b">
         <v>1</v>
       </c>
@@ -2525,50 +2679,142 @@
         <v>0</v>
       </c>
       <c r="D74" s="26" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E74" s="26" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F74" s="26" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G74" s="27" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="R74" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="S74" s="26" t="b">
+        <f>AND(Q74,R74)</f>
+        <v>0</v>
+      </c>
+      <c r="T74" s="26" t="b">
+        <f>OR(Q74,R74)</f>
+        <v>0</v>
+      </c>
+      <c r="U74" s="26" t="b">
+        <f>_xlfn.XOR(Q74,R74)</f>
+        <v>0</v>
+      </c>
+      <c r="V74" s="26" t="b">
+        <f>NOT(Q74)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" s="30" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="F74" s="26" t="b">
+      <c r="E75" s="30" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G74" s="27" t="b">
+      <c r="F75" s="30" t="b">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="28" t="b">
+      <c r="G75" s="31" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="R75" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="C75" s="29" t="b">
+      <c r="S75" s="26" t="b">
+        <f t="shared" ref="S75:S77" si="12">AND(Q75,R75)</f>
+        <v>0</v>
+      </c>
+      <c r="T75" s="26" t="b">
+        <f t="shared" ref="T75:T77" si="13">OR(Q75,R75)</f>
         <v>1</v>
       </c>
-      <c r="D75" s="30" t="b">
-        <f t="shared" si="7"/>
+      <c r="U75" s="26" t="b">
+        <f t="shared" ref="U75:U77" si="14">_xlfn.XOR(Q75,R75)</f>
         <v>1</v>
       </c>
-      <c r="E75" s="30" t="b">
-        <f t="shared" si="8"/>
+      <c r="V75" s="26" t="b">
+        <f t="shared" ref="V75:V77" si="15">NOT(Q75)</f>
         <v>1</v>
       </c>
-      <c r="F75" s="30" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="31" t="b">
-        <f t="shared" si="10"/>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="Q76" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R76" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="S76" s="26" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T76" s="26" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="U76" s="26" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="V76" s="26" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="Q77" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R77" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="S77" s="26" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="T77" s="26" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="U77" s="26" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V77" s="26" t="b">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B64">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="10"/>
@@ -2578,8 +2824,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D66">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>E64&gt;$I$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L63">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="20"/>
+        <color rgb="FFFF0000"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N63:N69">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>O63&gt;=$P$60</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/M162/Adressliste.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/M162/Adressliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\M162\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F461DF7-5969-4832-A388-65B2DC485D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B351BD4-85E1-45BD-A107-AFA18D2E0DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="8" xr2:uid="{261771D3-E3B1-4550-B05E-B0B7222E509E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="9" xr2:uid="{261771D3-E3B1-4550-B05E-B0B7222E509E}"/>
   </bookViews>
   <sheets>
     <sheet name="Set_UP" sheetId="5" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="Adress_liste_1" sheetId="8" r:id="rId7"/>
     <sheet name="Messreihe_A" sheetId="9" r:id="rId8"/>
     <sheet name="Messreihe_B" sheetId="10" r:id="rId9"/>
+    <sheet name="Text_Suche_A" sheetId="11" r:id="rId10"/>
+    <sheet name="Tabelle2" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Set_UP!$B$4:$B$6</definedName>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="532">
   <si>
     <t>Adressliste</t>
   </si>
@@ -1646,6 +1648,26 @@
   </si>
   <si>
     <t>Increment:</t>
+  </si>
+  <si>
+    <t>Die ist ein langer Text mit 
+Walter Rothlin, Peterliwiese 33, 8855 Wangen</t>
+  </si>
+  <si>
+    <t>KKKKKK</t>
+  </si>
+  <si>
+    <t>Hallo BZU ich wünsche einen guten Morgen
+Es ist heute etwas neblig!</t>
+  </si>
+  <si>
+    <t>8610 Uster ZH</t>
+  </si>
+  <si>
+    <t>8745 Lenzburg AG</t>
+  </si>
+  <si>
+    <t>CH-8855 Wangen SZ</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +2005,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2041,6 +2063,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6877,6 +6902,130 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7025799-F2D7-474A-994B-336362B6596F}">
+  <dimension ref="B5:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="40.7265625" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" customWidth="1"/>
+    <col min="5" max="5" width="37.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" ht="29">
+      <c r="B5" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="D5" t="str">
+        <f>RIGHT(B5,20)</f>
+        <v>iese 33, 8855 Wangen</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="D6" t="str">
+        <f>LEFT(B5,20)</f>
+        <v>Die ist ein langer T</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="D7" t="str">
+        <f>MID(B5,5,20)</f>
+        <v xml:space="preserve">ist ein langer Text </v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="72.5">
+      <c r="E11" s="38" t="s">
+        <v>528</v>
+      </c>
+      <c r="F11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>531</v>
+      </c>
+      <c r="C14" t="str">
+        <f>MID(B14,E14,F14-E14)</f>
+        <v xml:space="preserve"> Wangen</v>
+      </c>
+      <c r="D14">
+        <f>LEN(C14)</f>
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <f>SEARCH(" ",B14)</f>
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <f>SEARCH(" ",B14,E14+1)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>529</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" ref="C15:C16" si="0">MID(B15,E15,F15-E15)</f>
+        <v xml:space="preserve"> Uster</v>
+      </c>
+      <c r="D15">
+        <f>LEN(C15)</f>
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E16" si="1">SEARCH(" ",B15)</f>
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F16" si="2">SEARCH(" ",B15,E15+1)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>530</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Lenzburg</v>
+      </c>
+      <c r="D16">
+        <f>LEN(C16)</f>
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43F9A85-5F37-471C-835E-02727367CA12}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF23D83-735F-4FD9-9581-F51A5B19DB29}">
   <sheetPr>
@@ -13364,7 +13513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102074BA-7EA9-4285-ABE0-96247E7D60C7}">
   <dimension ref="B3:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>

--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/M162/Adressliste.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/M162/Adressliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\M162\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B351BD4-85E1-45BD-A107-AFA18D2E0DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08FFD13-1320-453E-9FFC-164C5C8CC5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="9" xr2:uid="{261771D3-E3B1-4550-B05E-B0B7222E509E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="10" xr2:uid="{261771D3-E3B1-4550-B05E-B0B7222E509E}"/>
   </bookViews>
   <sheets>
     <sheet name="Set_UP" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="Messreihe_A" sheetId="9" r:id="rId8"/>
     <sheet name="Messreihe_B" sheetId="10" r:id="rId9"/>
     <sheet name="Text_Suche_A" sheetId="11" r:id="rId10"/>
-    <sheet name="Tabelle2" sheetId="12" r:id="rId11"/>
+    <sheet name="Text_Suche_B" sheetId="13" r:id="rId11"/>
+    <sheet name="Tabelle2" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Set_UP!$B$4:$B$6</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="544">
   <si>
     <t>Adressliste</t>
   </si>
@@ -1668,6 +1669,43 @@
   </si>
   <si>
     <t>CH-8855 Wangen SZ</t>
+  </si>
+  <si>
+    <t>Peterliwiese 33</t>
+  </si>
+  <si>
+    <t>Länge</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Suchen("{")</t>
+  </si>
+  <si>
+    <t>Suchen("}")</t>
+  </si>
+  <si>
+    <t>Die ist ein langer Text mit
+{Vorname} {Nachname}, {Strasse}, 8855 Wangen</t>
+  </si>
+  <si>
+    <t>Plazhalter (indirekt)</t>
+  </si>
+  <si>
+    <t>Plazhalter (direkt)</t>
+  </si>
+  <si>
+    <t>Post_Text</t>
+  </si>
+  <si>
+    <t>Pre_Text</t>
+  </si>
+  <si>
+    <t>Replaced Placeholder</t>
+  </si>
+  <si>
+    <t>Wechseln</t>
   </si>
 </sst>
 </file>
@@ -2005,7 +2043,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2066,6 +2104,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6906,8 +6947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7025799-F2D7-474A-994B-336362B6596F}">
   <dimension ref="B5:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -6938,7 +6979,7 @@
         <v xml:space="preserve">ist ein langer Text </v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="72.5">
+    <row r="11" spans="2:6" ht="43.5">
       <c r="E11" s="38" t="s">
         <v>528</v>
       </c>
@@ -7015,6 +7056,151 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733A7037-35E3-4C78-92F5-738A94B6862A}">
+  <dimension ref="B5:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="43.54296875" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" customWidth="1"/>
+    <col min="5" max="5" width="37.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:5" ht="93" customHeight="1">
+      <c r="B5" s="39" t="s">
+        <v>537</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="str">
+        <f>RIGHT(B5,20)</f>
+        <v>trasse}, 8855 Wangen</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="str">
+        <f>LEFT(B5,20)</f>
+        <v>Die ist ein langer T</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="str">
+        <f>MID(B5,5,20)</f>
+        <v xml:space="preserve">ist ein langer Text </v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>533</v>
+      </c>
+      <c r="E8">
+        <f>LEN(B5)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D9" t="s">
+        <v>535</v>
+      </c>
+      <c r="E9">
+        <f>SEARCH("{",B5)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="D10" t="s">
+        <v>536</v>
+      </c>
+      <c r="E10">
+        <f>SEARCH("}",B5)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="D11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E11" s="38" t="str">
+        <f>MID(B5,E9,E10-E9+1)</f>
+        <v>{Vorname}</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="D12" t="s">
+        <v>539</v>
+      </c>
+      <c r="E12" s="38" t="str">
+        <f>MID(B5,SEARCH("{",B5),SEARCH("}",B5)-SEARCH("{",B5)+1)</f>
+        <v>{Vorname}</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="38.5" customHeight="1">
+      <c r="D14" t="s">
+        <v>541</v>
+      </c>
+      <c r="E14" t="str">
+        <f>LEFT(B5,E9-1)</f>
+        <v xml:space="preserve">Die ist ein langer Text mit
+</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="27" customHeight="1">
+      <c r="D15" t="s">
+        <v>540</v>
+      </c>
+      <c r="E15" t="str">
+        <f>RIGHT(B5,E8-E10)</f>
+        <v xml:space="preserve"> {Nachname}, {Strasse}, 8855 Wangen</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="D16" t="s">
+        <v>542</v>
+      </c>
+      <c r="E16" t="str">
+        <f>_xlfn.CONCAT(E14," ",B7,E15)</f>
+        <v>Die ist ein langer Text mit
+ Walter {Nachname}, {Strasse}, 8855 Wangen</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="42.5" customHeight="1">
+      <c r="D17" t="s">
+        <v>543</v>
+      </c>
+      <c r="E17" t="str">
+        <f>SUBSTITUTE(B5,"{Vorname}"," " &amp; B7)</f>
+        <v>Die ist ein langer Text mit
+ Walter {Nachname}, {Strasse}, 8855 Wangen</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43F9A85-5F37-471C-835E-02727367CA12}">
   <dimension ref="A1"/>
   <sheetViews>
